--- a/app/sudoku/sudoku.xlsx
+++ b/app/sudoku/sudoku.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a4356c8d9fefd57/ドキュメント/PY_SRC/xlw/sudoku/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a4356c8d9fefd57/ドキュメント/xlw-sample/app/sudoku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142629" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0685C9D3-58BB-4E48-9B3E-D35C817030A2}"/>
+  <xr:revisionPtr revIDLastSave="142766" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E14E0A75-CF66-4409-AEFF-19F5D6DCCBC2}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1335" windowWidth="22470" windowHeight="11805" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29715" yWindow="585" windowWidth="22470" windowHeight="11805" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,14 +780,14 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="9" width="4.5" customWidth="1"/>
     <col min="10" max="15" width="1.375" customWidth="1"/>
-    <col min="16" max="24" width="4.75" customWidth="1"/>
+    <col min="16" max="24" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
